--- a/ADAEUR.xlsx
+++ b/ADAEUR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vassilistsoubris/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4A584AAD-83CE-BA4F-8255-C3A12FE75C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A7BCD825-D329-F34A-8B7E-2E7E415CF485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1340" yWindow="600" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="444">
   <si>
     <t>Date</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>0.129218</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>0.079157</t>
@@ -2199,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B444"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2222,7 +2219,7 @@
         <v>44113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2230,7 +2227,7 @@
         <v>44114</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2238,7 +2235,7 @@
         <v>44115</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2246,7 +2243,7 @@
         <v>44116</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2254,7 +2251,7 @@
         <v>44117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2262,7 +2259,7 @@
         <v>44118</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2270,7 +2267,7 @@
         <v>44119</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2278,7 +2275,7 @@
         <v>44120</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2286,7 +2283,7 @@
         <v>44121</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2294,7 +2291,7 @@
         <v>44122</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2302,7 +2299,7 @@
         <v>44123</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2310,7 +2307,7 @@
         <v>44124</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2318,7 +2315,7 @@
         <v>44125</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -2326,7 +2323,7 @@
         <v>44126</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -2334,7 +2331,7 @@
         <v>44127</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2342,7 +2339,7 @@
         <v>44128</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2350,7 +2347,7 @@
         <v>44129</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2358,7 +2355,7 @@
         <v>44130</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2366,7 +2363,7 @@
         <v>44131</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -2374,7 +2371,7 @@
         <v>44132</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -2382,7 +2379,7 @@
         <v>44133</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -2390,7 +2387,7 @@
         <v>44134</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -2398,7 +2395,7 @@
         <v>44135</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -2406,7 +2403,7 @@
         <v>44136</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -2414,7 +2411,7 @@
         <v>44137</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -2422,7 +2419,7 @@
         <v>44138</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -2430,7 +2427,7 @@
         <v>44139</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -2438,7 +2435,7 @@
         <v>44140</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -2446,7 +2443,7 @@
         <v>44141</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -2454,7 +2451,7 @@
         <v>44142</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -2462,7 +2459,7 @@
         <v>44143</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -2470,7 +2467,7 @@
         <v>44144</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -2478,7 +2475,7 @@
         <v>44145</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -2486,7 +2483,7 @@
         <v>44146</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -2494,7 +2491,7 @@
         <v>44147</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -2502,7 +2499,7 @@
         <v>44148</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -2510,7 +2507,7 @@
         <v>44149</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -2518,7 +2515,7 @@
         <v>44150</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -2526,7 +2523,7 @@
         <v>44151</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -2534,7 +2531,7 @@
         <v>44152</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -2542,7 +2539,7 @@
         <v>44153</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -2550,7 +2547,7 @@
         <v>44154</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -2558,7 +2555,7 @@
         <v>44155</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -2566,7 +2563,7 @@
         <v>44156</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -2574,7 +2571,7 @@
         <v>44157</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -2582,7 +2579,7 @@
         <v>44158</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -2590,7 +2587,7 @@
         <v>44159</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -2598,7 +2595,7 @@
         <v>44160</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -2606,7 +2603,7 @@
         <v>44161</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -2614,7 +2611,7 @@
         <v>44162</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -2622,7 +2619,7 @@
         <v>44163</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -2630,7 +2627,7 @@
         <v>44164</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -2638,7 +2635,7 @@
         <v>44165</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -2654,7 +2651,7 @@
         <v>44167</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -2662,7 +2659,7 @@
         <v>44168</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -2670,7 +2667,7 @@
         <v>44169</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -2678,7 +2675,7 @@
         <v>44170</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -2686,7 +2683,7 @@
         <v>44171</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -2694,7 +2691,7 @@
         <v>44172</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -2702,7 +2699,7 @@
         <v>44173</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -2710,7 +2707,7 @@
         <v>44174</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -2718,7 +2715,7 @@
         <v>44175</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -2726,7 +2723,7 @@
         <v>44176</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -2734,7 +2731,7 @@
         <v>44177</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -2742,7 +2739,7 @@
         <v>44178</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -2750,7 +2747,7 @@
         <v>44179</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -2758,7 +2755,7 @@
         <v>44180</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -2766,7 +2763,7 @@
         <v>44181</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -2774,7 +2771,7 @@
         <v>44182</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -2782,7 +2779,7 @@
         <v>44183</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -2790,7 +2787,7 @@
         <v>44184</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -2798,7 +2795,7 @@
         <v>44185</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -2806,7 +2803,7 @@
         <v>44186</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -2814,7 +2811,7 @@
         <v>44187</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -2822,7 +2819,7 @@
         <v>44188</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -2830,7 +2827,7 @@
         <v>44189</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -2838,7 +2835,7 @@
         <v>44190</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -2846,7 +2843,7 @@
         <v>44191</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -2854,7 +2851,7 @@
         <v>44192</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -2862,7 +2859,7 @@
         <v>44193</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -2870,7 +2867,7 @@
         <v>44194</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -2878,7 +2875,7 @@
         <v>44195</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -2886,7 +2883,7 @@
         <v>44196</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -2894,7 +2891,7 @@
         <v>44197</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -2902,7 +2899,7 @@
         <v>44198</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -2910,7 +2907,7 @@
         <v>44199</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -2918,7 +2915,7 @@
         <v>44200</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -2926,7 +2923,7 @@
         <v>44201</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -2934,7 +2931,7 @@
         <v>44202</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -2942,7 +2939,7 @@
         <v>44203</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -2950,7 +2947,7 @@
         <v>44204</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -2958,7 +2955,7 @@
         <v>44205</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -2966,7 +2963,7 @@
         <v>44206</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -2974,7 +2971,7 @@
         <v>44207</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -2982,7 +2979,7 @@
         <v>44208</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -2990,7 +2987,7 @@
         <v>44209</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -2998,7 +2995,7 @@
         <v>44210</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -3006,7 +3003,7 @@
         <v>44211</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -3014,7 +3011,7 @@
         <v>44212</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -3022,7 +3019,7 @@
         <v>44213</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -3030,7 +3027,7 @@
         <v>44214</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -3038,7 +3035,7 @@
         <v>44215</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -3046,7 +3043,7 @@
         <v>44216</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -3054,7 +3051,7 @@
         <v>44217</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -3062,7 +3059,7 @@
         <v>44218</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -3070,7 +3067,7 @@
         <v>44219</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -3078,7 +3075,7 @@
         <v>44220</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -3086,7 +3083,7 @@
         <v>44221</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -3094,7 +3091,7 @@
         <v>44222</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -3102,7 +3099,7 @@
         <v>44223</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -3110,7 +3107,7 @@
         <v>44224</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -3118,7 +3115,7 @@
         <v>44225</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -3126,7 +3123,7 @@
         <v>44226</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -3134,7 +3131,7 @@
         <v>44227</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -3142,7 +3139,7 @@
         <v>44228</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -3150,7 +3147,7 @@
         <v>44229</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -3158,7 +3155,7 @@
         <v>44230</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -3166,7 +3163,7 @@
         <v>44231</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -3174,7 +3171,7 @@
         <v>44232</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -3182,7 +3179,7 @@
         <v>44233</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -3190,7 +3187,7 @@
         <v>44234</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -3198,7 +3195,7 @@
         <v>44235</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -3206,7 +3203,7 @@
         <v>44236</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -3214,7 +3211,7 @@
         <v>44237</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -3222,7 +3219,7 @@
         <v>44238</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -3230,7 +3227,7 @@
         <v>44239</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -3238,7 +3235,7 @@
         <v>44240</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -3246,7 +3243,7 @@
         <v>44241</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -3254,7 +3251,7 @@
         <v>44242</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -3262,7 +3259,7 @@
         <v>44243</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -3270,7 +3267,7 @@
         <v>44244</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -3278,7 +3275,7 @@
         <v>44245</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -3286,7 +3283,7 @@
         <v>44246</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -3294,7 +3291,7 @@
         <v>44247</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -3302,7 +3299,7 @@
         <v>44248</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -3310,7 +3307,7 @@
         <v>44249</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -3318,7 +3315,7 @@
         <v>44250</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -3326,7 +3323,7 @@
         <v>44251</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -3334,7 +3331,7 @@
         <v>44252</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -3342,7 +3339,7 @@
         <v>44253</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -3350,7 +3347,7 @@
         <v>44254</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -3358,7 +3355,7 @@
         <v>44255</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -3366,7 +3363,7 @@
         <v>44256</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -3374,7 +3371,7 @@
         <v>44257</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -3382,7 +3379,7 @@
         <v>44258</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -3390,7 +3387,7 @@
         <v>44259</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -3398,7 +3395,7 @@
         <v>44260</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -3406,7 +3403,7 @@
         <v>44261</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -3414,7 +3411,7 @@
         <v>44262</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -3422,7 +3419,7 @@
         <v>44263</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -3430,7 +3427,7 @@
         <v>44264</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -3438,7 +3435,7 @@
         <v>44265</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -3446,7 +3443,7 @@
         <v>44266</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -3454,7 +3451,7 @@
         <v>44267</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -3462,7 +3459,7 @@
         <v>44268</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -3470,7 +3467,7 @@
         <v>44269</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -3478,7 +3475,7 @@
         <v>44270</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -3486,7 +3483,7 @@
         <v>44271</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -3494,7 +3491,7 @@
         <v>44272</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -3502,7 +3499,7 @@
         <v>44273</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -3510,7 +3507,7 @@
         <v>44274</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -3518,7 +3515,7 @@
         <v>44275</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -3526,7 +3523,7 @@
         <v>44276</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -3534,7 +3531,7 @@
         <v>44277</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -3542,7 +3539,7 @@
         <v>44278</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -3550,7 +3547,7 @@
         <v>44279</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -3558,7 +3555,7 @@
         <v>44280</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -3566,7 +3563,7 @@
         <v>44281</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -3574,7 +3571,7 @@
         <v>44282</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -3582,7 +3579,7 @@
         <v>44283</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -3590,7 +3587,7 @@
         <v>44284</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -3598,7 +3595,7 @@
         <v>44285</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -3606,7 +3603,7 @@
         <v>44286</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -3614,7 +3611,7 @@
         <v>44287</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -3622,7 +3619,7 @@
         <v>44288</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -3630,7 +3627,7 @@
         <v>44289</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -3638,7 +3635,7 @@
         <v>44290</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -3646,7 +3643,7 @@
         <v>44291</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -3654,7 +3651,7 @@
         <v>44292</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -3662,7 +3659,7 @@
         <v>44293</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -3670,7 +3667,7 @@
         <v>44294</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -3678,7 +3675,7 @@
         <v>44295</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -3686,7 +3683,7 @@
         <v>44296</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -3694,7 +3691,7 @@
         <v>44297</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -3702,7 +3699,7 @@
         <v>44298</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -3710,7 +3707,7 @@
         <v>44299</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -3718,7 +3715,7 @@
         <v>44300</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -3726,7 +3723,7 @@
         <v>44301</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -3734,7 +3731,7 @@
         <v>44302</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -3742,7 +3739,7 @@
         <v>44303</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -3750,7 +3747,7 @@
         <v>44304</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -3758,7 +3755,7 @@
         <v>44305</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -3766,7 +3763,7 @@
         <v>44306</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -3774,7 +3771,7 @@
         <v>44307</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -3782,7 +3779,7 @@
         <v>44308</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -3790,7 +3787,7 @@
         <v>44309</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -3798,7 +3795,7 @@
         <v>44310</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -3806,7 +3803,7 @@
         <v>44311</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -3814,7 +3811,7 @@
         <v>44312</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -3822,7 +3819,7 @@
         <v>44313</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -3830,7 +3827,7 @@
         <v>44314</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -3838,7 +3835,7 @@
         <v>44315</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -3846,7 +3843,7 @@
         <v>44316</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -3854,7 +3851,7 @@
         <v>44317</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -3862,7 +3859,7 @@
         <v>44318</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -3870,7 +3867,7 @@
         <v>44319</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -3878,7 +3875,7 @@
         <v>44320</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -3886,7 +3883,7 @@
         <v>44321</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -3894,7 +3891,7 @@
         <v>44322</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -3902,7 +3899,7 @@
         <v>44323</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -3910,7 +3907,7 @@
         <v>44324</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -3918,7 +3915,7 @@
         <v>44325</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -3926,7 +3923,7 @@
         <v>44326</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -3934,7 +3931,7 @@
         <v>44327</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -3942,7 +3939,7 @@
         <v>44328</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -3950,7 +3947,7 @@
         <v>44329</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -3958,7 +3955,7 @@
         <v>44330</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -3966,7 +3963,7 @@
         <v>44331</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -3974,7 +3971,7 @@
         <v>44332</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -3982,7 +3979,7 @@
         <v>44333</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -3990,7 +3987,7 @@
         <v>44334</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -3998,7 +3995,7 @@
         <v>44335</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -4006,7 +4003,7 @@
         <v>44336</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -4014,7 +4011,7 @@
         <v>44337</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -4022,7 +4019,7 @@
         <v>44338</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -4030,7 +4027,7 @@
         <v>44339</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -4038,7 +4035,7 @@
         <v>44340</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -4046,7 +4043,7 @@
         <v>44341</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -4054,7 +4051,7 @@
         <v>44342</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -4062,7 +4059,7 @@
         <v>44343</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -4070,7 +4067,7 @@
         <v>44344</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -4078,7 +4075,7 @@
         <v>44345</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -4086,7 +4083,7 @@
         <v>44346</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -4094,7 +4091,7 @@
         <v>44347</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -4102,7 +4099,7 @@
         <v>44348</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -4110,7 +4107,7 @@
         <v>44349</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -4118,7 +4115,7 @@
         <v>44350</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -4126,7 +4123,7 @@
         <v>44351</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -4134,7 +4131,7 @@
         <v>44352</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -4142,7 +4139,7 @@
         <v>44353</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -4150,7 +4147,7 @@
         <v>44354</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -4158,7 +4155,7 @@
         <v>44355</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -4166,7 +4163,7 @@
         <v>44356</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -4174,7 +4171,7 @@
         <v>44357</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -4182,7 +4179,7 @@
         <v>44358</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -4190,7 +4187,7 @@
         <v>44359</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -4198,7 +4195,7 @@
         <v>44360</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -4206,7 +4203,7 @@
         <v>44361</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -4214,7 +4211,7 @@
         <v>44362</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -4222,7 +4219,7 @@
         <v>44363</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -4230,7 +4227,7 @@
         <v>44364</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -4238,7 +4235,7 @@
         <v>44365</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -4246,7 +4243,7 @@
         <v>44366</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -4254,7 +4251,7 @@
         <v>44367</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -4262,7 +4259,7 @@
         <v>44368</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -4270,7 +4267,7 @@
         <v>44369</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -4278,7 +4275,7 @@
         <v>44370</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -4286,7 +4283,7 @@
         <v>44371</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -4294,7 +4291,7 @@
         <v>44372</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -4302,7 +4299,7 @@
         <v>44373</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -4310,7 +4307,7 @@
         <v>44374</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -4318,7 +4315,7 @@
         <v>44375</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -4326,7 +4323,7 @@
         <v>44376</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -4334,7 +4331,7 @@
         <v>44377</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -4342,7 +4339,7 @@
         <v>44378</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -4350,7 +4347,7 @@
         <v>44379</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -4358,7 +4355,7 @@
         <v>44380</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -4366,7 +4363,7 @@
         <v>44381</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -4374,7 +4371,7 @@
         <v>44382</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -4382,7 +4379,7 @@
         <v>44383</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -4390,7 +4387,7 @@
         <v>44384</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -4398,7 +4395,7 @@
         <v>44385</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -4406,7 +4403,7 @@
         <v>44386</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -4414,7 +4411,7 @@
         <v>44387</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -4422,7 +4419,7 @@
         <v>44388</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -4430,7 +4427,7 @@
         <v>44389</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -4438,7 +4435,7 @@
         <v>44390</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -4446,7 +4443,7 @@
         <v>44391</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -4454,7 +4451,7 @@
         <v>44392</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -4462,7 +4459,7 @@
         <v>44393</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -4470,7 +4467,7 @@
         <v>44394</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -4478,7 +4475,7 @@
         <v>44395</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -4486,7 +4483,7 @@
         <v>44396</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -4494,7 +4491,7 @@
         <v>44397</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -4502,7 +4499,7 @@
         <v>44398</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -4510,7 +4507,7 @@
         <v>44399</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -4518,7 +4515,7 @@
         <v>44400</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -4526,7 +4523,7 @@
         <v>44401</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -4534,7 +4531,7 @@
         <v>44402</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -4542,7 +4539,7 @@
         <v>44403</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -4550,7 +4547,7 @@
         <v>44404</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -4558,7 +4555,7 @@
         <v>44405</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -4566,7 +4563,7 @@
         <v>44406</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -4574,7 +4571,7 @@
         <v>44407</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -4582,7 +4579,7 @@
         <v>44408</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -4590,7 +4587,7 @@
         <v>44409</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -4598,7 +4595,7 @@
         <v>44410</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -4606,7 +4603,7 @@
         <v>44411</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -4614,7 +4611,7 @@
         <v>44412</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -4622,7 +4619,7 @@
         <v>44413</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -4630,7 +4627,7 @@
         <v>44414</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -4638,7 +4635,7 @@
         <v>44415</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -4646,7 +4643,7 @@
         <v>44416</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -4654,7 +4651,7 @@
         <v>44417</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -4662,7 +4659,7 @@
         <v>44418</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -4670,7 +4667,7 @@
         <v>44419</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -4678,7 +4675,7 @@
         <v>44420</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -4686,7 +4683,7 @@
         <v>44421</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -4694,7 +4691,7 @@
         <v>44422</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -4702,7 +4699,7 @@
         <v>44423</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -4710,7 +4707,7 @@
         <v>44424</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -4718,7 +4715,7 @@
         <v>44425</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -4726,7 +4723,7 @@
         <v>44426</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -4734,7 +4731,7 @@
         <v>44427</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -4742,7 +4739,7 @@
         <v>44428</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -4750,7 +4747,7 @@
         <v>44429</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -4758,7 +4755,7 @@
         <v>44430</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -4766,7 +4763,7 @@
         <v>44431</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -4774,7 +4771,7 @@
         <v>44432</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -4782,7 +4779,7 @@
         <v>44433</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -4790,7 +4787,7 @@
         <v>44434</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -4798,7 +4795,7 @@
         <v>44435</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -4806,7 +4803,7 @@
         <v>44436</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -4814,7 +4811,7 @@
         <v>44437</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -4822,7 +4819,7 @@
         <v>44438</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -4830,7 +4827,7 @@
         <v>44439</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -4838,7 +4835,7 @@
         <v>44440</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -4846,7 +4843,7 @@
         <v>44441</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -4854,7 +4851,7 @@
         <v>44442</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -4862,7 +4859,7 @@
         <v>44443</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -4870,7 +4867,7 @@
         <v>44444</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -4878,7 +4875,7 @@
         <v>44445</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -4886,7 +4883,7 @@
         <v>44446</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -4894,7 +4891,7 @@
         <v>44447</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -4902,7 +4899,7 @@
         <v>44448</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -4910,7 +4907,7 @@
         <v>44449</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -4918,7 +4915,7 @@
         <v>44450</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -4926,7 +4923,7 @@
         <v>44451</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -4934,7 +4931,7 @@
         <v>44452</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -4942,7 +4939,7 @@
         <v>44453</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -4950,7 +4947,7 @@
         <v>44454</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -4958,7 +4955,7 @@
         <v>44455</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -4966,7 +4963,7 @@
         <v>44456</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -4974,7 +4971,7 @@
         <v>44457</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -4982,7 +4979,7 @@
         <v>44458</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -4990,7 +4987,7 @@
         <v>44459</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -4998,7 +4995,7 @@
         <v>44460</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -5006,7 +5003,7 @@
         <v>44461</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -5014,7 +5011,7 @@
         <v>44462</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -5022,7 +5019,7 @@
         <v>44463</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -5030,7 +5027,7 @@
         <v>44464</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -5038,7 +5035,7 @@
         <v>44465</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -5046,7 +5043,7 @@
         <v>44466</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -5054,7 +5051,7 @@
         <v>44467</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -5062,7 +5059,7 @@
         <v>44468</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -5070,7 +5067,7 @@
         <v>44469</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -5078,7 +5075,7 @@
         <v>44470</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -5086,7 +5083,7 @@
         <v>44471</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -5094,7 +5091,7 @@
         <v>44472</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -5102,7 +5099,7 @@
         <v>44473</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -5110,7 +5107,7 @@
         <v>44474</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -5118,7 +5115,7 @@
         <v>44475</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -5126,7 +5123,7 @@
         <v>44476</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -5134,7 +5131,7 @@
         <v>44477</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -5142,7 +5139,7 @@
         <v>44478</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -5150,7 +5147,7 @@
         <v>44479</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -5158,7 +5155,7 @@
         <v>44480</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -5166,7 +5163,7 @@
         <v>44481</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -5174,7 +5171,7 @@
         <v>44482</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -5182,7 +5179,7 @@
         <v>44483</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -5190,7 +5187,7 @@
         <v>44484</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -5198,7 +5195,7 @@
         <v>44485</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -5206,7 +5203,7 @@
         <v>44486</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -5214,7 +5211,7 @@
         <v>44487</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -5222,7 +5219,7 @@
         <v>44488</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -5230,7 +5227,7 @@
         <v>44489</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -5238,7 +5235,7 @@
         <v>44490</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -5246,7 +5243,7 @@
         <v>44491</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -5254,7 +5251,7 @@
         <v>44492</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -5262,7 +5259,7 @@
         <v>44493</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -5270,7 +5267,7 @@
         <v>44494</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -5278,7 +5275,7 @@
         <v>44495</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -5286,7 +5283,7 @@
         <v>44496</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -5294,7 +5291,7 @@
         <v>44497</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -5302,7 +5299,7 @@
         <v>44498</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -5310,7 +5307,7 @@
         <v>44499</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -5318,7 +5315,7 @@
         <v>44500</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -5326,7 +5323,7 @@
         <v>44501</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -5334,7 +5331,7 @@
         <v>44502</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -5342,7 +5339,7 @@
         <v>44503</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -5350,7 +5347,7 @@
         <v>44504</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -5358,7 +5355,7 @@
         <v>44505</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -5366,7 +5363,7 @@
         <v>44506</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -5374,7 +5371,7 @@
         <v>44507</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -5382,7 +5379,7 @@
         <v>44508</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -5390,7 +5387,7 @@
         <v>44509</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -5398,7 +5395,7 @@
         <v>44510</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -5406,7 +5403,7 @@
         <v>44511</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -5414,7 +5411,7 @@
         <v>44512</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -5422,7 +5419,7 @@
         <v>44513</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -5430,7 +5427,7 @@
         <v>44514</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -5438,7 +5435,7 @@
         <v>44515</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -5446,7 +5443,7 @@
         <v>44516</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -5454,7 +5451,7 @@
         <v>44517</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -5462,7 +5459,7 @@
         <v>44518</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -5470,7 +5467,7 @@
         <v>44519</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -5478,7 +5475,7 @@
         <v>44520</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -5486,7 +5483,7 @@
         <v>44521</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -5494,7 +5491,7 @@
         <v>44522</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -5502,7 +5499,7 @@
         <v>44523</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -5510,7 +5507,7 @@
         <v>44524</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -5518,7 +5515,7 @@
         <v>44525</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -5526,7 +5523,7 @@
         <v>44526</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -5534,7 +5531,7 @@
         <v>44527</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -5542,7 +5539,7 @@
         <v>44528</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -5550,7 +5547,7 @@
         <v>44529</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -5558,7 +5555,7 @@
         <v>44530</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -5566,7 +5563,7 @@
         <v>44531</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -5574,7 +5571,7 @@
         <v>44532</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -5582,7 +5579,7 @@
         <v>44533</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -5590,7 +5587,7 @@
         <v>44534</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -5598,7 +5595,7 @@
         <v>44535</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -5606,7 +5603,7 @@
         <v>44536</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -5614,7 +5611,7 @@
         <v>44537</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -5622,7 +5619,7 @@
         <v>44538</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -5630,7 +5627,7 @@
         <v>44539</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -5638,7 +5635,7 @@
         <v>44540</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -5646,7 +5643,7 @@
         <v>44541</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -5654,7 +5651,7 @@
         <v>44542</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -5662,7 +5659,7 @@
         <v>44543</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -5670,7 +5667,7 @@
         <v>44544</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -5678,7 +5675,7 @@
         <v>44545</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -5686,7 +5683,7 @@
         <v>44546</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -5694,7 +5691,7 @@
         <v>44547</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -5702,7 +5699,7 @@
         <v>44548</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -5710,7 +5707,7 @@
         <v>44549</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -5718,7 +5715,7 @@
         <v>44550</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -5726,7 +5723,7 @@
         <v>44551</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -5734,7 +5731,7 @@
         <v>44552</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -5742,7 +5739,7 @@
         <v>44553</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -5750,7 +5747,7 @@
         <v>44554</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -5758,7 +5755,7 @@
         <v>44555</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
